--- a/doc/Result_Record.xlsx
+++ b/doc/Result_Record.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03BE3A4-E407-4E85-AA46-391878BF7118}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135C2B28-80D9-4D7B-9BCF-5B15A1A839F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="3730" windowWidth="21060" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4002" yWindow="816" windowWidth="16650" windowHeight="10206" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="5th" sheetId="1" r:id="rId1"/>
+    <sheet name="7th" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
   <si>
     <t>L1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,17 +389,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.84765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.84765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -430,7 +431,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -455,7 +456,7 @@
         <v>4.9559580168517456</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -481,7 +482,7 @@
         <v>4.9422326743134937</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -507,7 +508,7 @@
         <v>4.5837730012245244</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -539,7 +540,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -564,7 +565,7 @@
         <v>5.0016291985100585</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -590,7 +591,7 @@
         <v>4.9945781513377518</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -616,7 +617,7 @@
         <v>4.7131784793327292</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -633,7 +634,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -650,7 +651,7 @@
         <v>-0.4155415485730331</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -667,7 +668,7 @@
         <v>-0.42946263896355202</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -684,7 +685,7 @@
         <v>-0.41858005509210544</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -701,7 +702,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -715,7 +716,7 @@
         <v>2.90312201992803E-9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -729,7 +730,7 @@
         <v>3.6769991844076998E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -743,7 +744,7 @@
         <v>1.41552499787276E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -760,7 +761,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -771,7 +772,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -782,7 +783,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -793,7 +794,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -825,7 +826,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -848,7 +849,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -872,7 +873,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -894,6 +895,157 @@
       <c r="J32" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB1E47D-D4BA-4184-AEA5-309825D04A98}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>4.5</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>0.5</v>
+      </c>
+      <c r="F1">
+        <v>0.25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>4.5</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>0.5</v>
+      </c>
+      <c r="M1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.0004761810543401E-7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.7979721705395302E-9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.2058009054580498E-11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.0601747506309999E-13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>LOG(B2/C2)/LOG(B1/C1)</f>
+        <v>6.9744303584109808</v>
+      </c>
+      <c r="K2" s="1">
+        <f>LOG(C2/D2)/LOG(C1/D1)</f>
+        <v>6.9869352230397839</v>
+      </c>
+      <c r="L2" s="1">
+        <f>LOG(D2/E2)/LOG(D1/E1)</f>
+        <v>6.1715447295461798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.4492435813191501E-7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.9556917398769301E-9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.34685301876061E-11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.1986464171723602E-13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <f>LOG(B3/C3)/LOG(B1/C1)</f>
+        <v>6.9741073627056283</v>
+      </c>
+      <c r="K3" s="1">
+        <f>LOG(C3/D3)/LOG(C1/D1)</f>
+        <v>6.9766245130231113</v>
+      </c>
+      <c r="L3" s="1">
+        <f>LOG(D3/E3)/LOG(D1/E1)</f>
+        <v>6.1971221560564613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.2178521917905201E-6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.2648030078895996E-9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.4456607200243601E-11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.9116705794239995E-13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <f>LOG(B4/C4)/LOG(B1/C1)</f>
+        <v>6.972792458357385</v>
+      </c>
+      <c r="K4" s="1">
+        <f>LOG(C4/D4)/LOG(C1/D1)</f>
+        <v>6.9515546421466397</v>
+      </c>
+      <c r="L4" s="1">
+        <f>LOG(D4/E4)/LOG(D1/E1)</f>
+        <v>6.1324230381958147</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Result_Record.xlsx
+++ b/doc/Result_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135C2B28-80D9-4D7B-9BCF-5B15A1A839F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F36998-54AB-4ABC-89E6-613A9F425C2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4002" yWindow="816" windowWidth="16650" windowHeight="10206" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2676" yWindow="762" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5th" sheetId="1" r:id="rId1"/>
@@ -387,16 +387,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="4" width="9.84765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.84765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">
@@ -685,7 +686,7 @@
         <v>-0.41858005509210544</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -702,7 +703,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -716,7 +717,7 @@
         <v>2.90312201992803E-9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -730,7 +731,7 @@
         <v>3.6769991844076998E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -744,7 +745,7 @@
         <v>1.41552499787276E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -761,7 +762,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -772,7 +773,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -783,7 +784,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -794,107 +795,135 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>0.5</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.25</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>6</v>
       </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>0.5</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="1">
-        <v>2.26526771952269E-7</v>
+        <v>1.3083425122547899E-5</v>
       </c>
       <c r="C30" s="1">
-        <v>7.0780296766155198E-9</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="G30" t="s">
+        <v>2.2652677197873399E-7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7.0780297682684304E-9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.2166428419148001E-10</v>
+      </c>
+      <c r="H30" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="1">
-        <f>LOG(B30/C30)/LOG(2)</f>
-        <v>5.000189943630561</v>
-      </c>
-      <c r="J30" s="1" t="e">
+      <c r="J30" s="1">
+        <f>LOG(B30/C30)/LOG(B29/C29)</f>
+        <v>5.0019572986932817</v>
+      </c>
+      <c r="K30" s="1">
         <f>LOG(C30/D30)/LOG(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+        <v>5.0001899251177537</v>
+      </c>
+      <c r="L30" s="1">
+        <f>LOG(D30/E30)/LOG(2)</f>
+        <v>4.9968995905353069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="1">
-        <v>3.1932286688560402E-7</v>
+        <v>1.8225471623456599E-5</v>
       </c>
       <c r="C31" s="1">
-        <v>1.00668312459739E-8</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="G31" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1">
-        <f t="shared" ref="I31:I32" si="8">LOG(B31/C31)/LOG(2)</f>
-        <v>4.9873343285097844</v>
-      </c>
-      <c r="J31" s="1" t="e">
-        <f t="shared" ref="J31:J32" si="9">LOG(C31/D31)/LOG(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+        <v>3.1932286687127402E-7</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.0066831303211099E-8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3.1532650571733902E-10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <f>LOG(B31/C31)/LOG(B29/C29)</f>
+        <v>4.9873252231915997</v>
+      </c>
+      <c r="K31" s="1">
+        <f>LOG(C31/D31)/LOG(2)</f>
+        <v>4.9873343202422795</v>
+      </c>
+      <c r="L31" s="1">
+        <f>LOG(D31/E31)/LOG(2)</f>
+        <v>4.9966193879584422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="1">
+        <v>3.6838087885280801E-5</v>
+      </c>
+      <c r="C32" s="1">
         <v>6.38244500242288E-7</v>
       </c>
-      <c r="C32" s="1">
-        <v>1.98424893025466E-8</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="G32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1">
-        <f t="shared" si="8"/>
-        <v>5.0074442681606204</v>
-      </c>
-      <c r="J32" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="D32" s="1">
+        <v>1.9842489483049301E-8</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6.1855080856330297E-10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
+        <f>LOG(B32/C32)/LOG(B29/C29)</f>
+        <v>5.0011284146879769</v>
+      </c>
+      <c r="K32" s="1">
+        <f>LOG(C32/D32)/LOG(2)</f>
+        <v>5.007444255036746</v>
+      </c>
+      <c r="L32" s="1">
+        <f>LOG(D32/E32)/LOG(2)</f>
+        <v>5.003557125691878</v>
       </c>
     </row>
   </sheetData>
@@ -908,11 +937,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB1E47D-D4BA-4184-AEA5-309825D04A98}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="13" max="13" width="9.44921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
@@ -968,6 +1000,9 @@
       <c r="E2" s="1">
         <v>3.0601747506309999E-13</v>
       </c>
+      <c r="F2" s="1">
+        <v>1.24485906385381E-12</v>
+      </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
@@ -983,6 +1018,10 @@
         <f>LOG(D2/E2)/LOG(D1/E1)</f>
         <v>6.1715447295461798</v>
       </c>
+      <c r="M2" s="1">
+        <f>LOG(E2/F2)/LOG(E1/F1)</f>
+        <v>-2.024296472305553</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -999,6 +1038,9 @@
       </c>
       <c r="E3" s="1">
         <v>3.1986464171723602E-13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.22812686162193E-12</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
@@ -1015,6 +1057,10 @@
         <f>LOG(D3/E3)/LOG(D1/E1)</f>
         <v>6.1971221560564613</v>
       </c>
+      <c r="M3" s="1">
+        <f>LOG(E3/F3)/LOG(E1/F1)</f>
+        <v>-1.9409261653801555</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
@@ -1031,6 +1077,9 @@
       </c>
       <c r="E4" s="1">
         <v>4.9116705794239995E-13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.1246396506661499E-12</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
@@ -1046,6 +1095,10 @@
       <c r="L4" s="1">
         <f>LOG(D4/E4)/LOG(D1/E1)</f>
         <v>6.1324230381958147</v>
+      </c>
+      <c r="M4" s="1">
+        <f>LOG(E4/F4)/LOG(E1/F1)</f>
+        <v>-1.195177107992327</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Result_Record.xlsx
+++ b/doc/Result_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F36998-54AB-4ABC-89E6-613A9F425C2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309EB467-FF6C-412C-865B-B39D5E869A20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2676" yWindow="762" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="1116" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5th" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -846,6 +846,9 @@
       <c r="E30" s="1">
         <v>2.2166428419148001E-10</v>
       </c>
+      <c r="F30" s="1">
+        <v>7.5823791387339097E-12</v>
+      </c>
       <c r="H30" t="s">
         <v>0</v>
       </c>
@@ -854,12 +857,16 @@
         <v>5.0019572986932817</v>
       </c>
       <c r="K30" s="1">
-        <f>LOG(C30/D30)/LOG(2)</f>
+        <f t="shared" ref="K30:M32" si="8">LOG(C30/D30)/LOG(2)</f>
         <v>5.0001899251177537</v>
       </c>
       <c r="L30" s="1">
-        <f>LOG(D30/E30)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>4.9968995905353069</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="8"/>
+        <v>4.8695819266585314</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
@@ -877,6 +884,9 @@
       </c>
       <c r="E31" s="1">
         <v>3.1532650571733902E-10</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.0063424436277199E-11</v>
       </c>
       <c r="H31" t="s">
         <v>1</v>
@@ -886,12 +896,16 @@
         <v>4.9873252231915997</v>
       </c>
       <c r="K31" s="1">
-        <f>LOG(C31/D31)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>4.9873343202422795</v>
       </c>
       <c r="L31" s="1">
-        <f>LOG(D31/E31)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>4.9966193879584422</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="8"/>
+        <v>4.9696532233440047</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.5">
@@ -909,6 +923,9 @@
       </c>
       <c r="E32" s="1">
         <v>6.1855080856330297E-10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.8711732920273901E-11</v>
       </c>
       <c r="H32" t="s">
         <v>2</v>
@@ -918,12 +935,16 @@
         <v>5.0011284146879769</v>
       </c>
       <c r="K32" s="1">
-        <f>LOG(C32/D32)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>5.007444255036746</v>
       </c>
       <c r="L32" s="1">
-        <f>LOG(D32/E32)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>5.003557125691878</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="8"/>
+        <v>5.0468770249812334</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +959,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>

--- a/doc/Result_Record.xlsx
+++ b/doc/Result_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309EB467-FF6C-412C-865B-B39D5E869A20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1EA1F6-A481-49E8-A401-B075A458DF04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1116" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5934" yWindow="828" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5th" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
   <si>
     <t>L1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>Poly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WENO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,15 +391,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="4" width="9.84765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.84765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.84765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.44921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -686,7 +692,7 @@
         <v>-0.41858005509210544</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -703,7 +709,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -717,7 +723,7 @@
         <v>2.90312201992803E-9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -731,7 +737,7 @@
         <v>3.6769991844076998E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -745,7 +751,7 @@
         <v>1.41552499787276E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -762,7 +768,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -773,7 +779,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -784,7 +790,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -795,7 +801,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -817,20 +823,20 @@
       <c r="H29" t="s">
         <v>6</v>
       </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
-      </c>
-      <c r="M29">
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -852,24 +858,24 @@
       <c r="H30" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="1">
+      <c r="I30" s="1">
         <f>LOG(B30/C30)/LOG(B29/C29)</f>
         <v>5.0019572986932817</v>
       </c>
+      <c r="J30" s="1">
+        <f>LOG(C30/D30)/LOG(2)</f>
+        <v>5.0001899251177537</v>
+      </c>
       <c r="K30" s="1">
-        <f t="shared" ref="K30:M32" si="8">LOG(C30/D30)/LOG(2)</f>
-        <v>5.0001899251177537</v>
+        <f>LOG(D30/E30)/LOG(2)</f>
+        <v>4.9968995905353069</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="8"/>
-        <v>4.9968995905353069</v>
-      </c>
-      <c r="M30" s="1">
-        <f t="shared" si="8"/>
+        <f>LOG(E30/F30)/LOG(2)</f>
         <v>4.8695819266585314</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -891,24 +897,24 @@
       <c r="H31" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="1">
+      <c r="I31" s="1">
         <f>LOG(B31/C31)/LOG(B29/C29)</f>
         <v>4.9873252231915997</v>
       </c>
+      <c r="J31" s="1">
+        <f>LOG(C31/D31)/LOG(2)</f>
+        <v>4.9873343202422795</v>
+      </c>
       <c r="K31" s="1">
-        <f t="shared" si="8"/>
-        <v>4.9873343202422795</v>
+        <f>LOG(D31/E31)/LOG(2)</f>
+        <v>4.9966193879584422</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="8"/>
-        <v>4.9966193879584422</v>
-      </c>
-      <c r="M31" s="1">
-        <f t="shared" si="8"/>
+        <f>LOG(E31/F31)/LOG(2)</f>
         <v>4.9696532233440047</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -930,21 +936,208 @@
       <c r="H32" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="1">
+      <c r="I32" s="1">
         <f>LOG(B32/C32)/LOG(B29/C29)</f>
         <v>5.0011284146879769</v>
       </c>
+      <c r="J32" s="1">
+        <f>LOG(C32/D32)/LOG(2)</f>
+        <v>5.007444255036746</v>
+      </c>
       <c r="K32" s="1">
+        <f>LOG(D32/E32)/LOG(2)</f>
+        <v>5.003557125691878</v>
+      </c>
+      <c r="L32" s="1">
+        <f>LOG(E32/F32)/LOG(2)</f>
+        <v>5.0468770249812334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>4.5</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>0.25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7.8192776413125699E-6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.08124282793362E-7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.6421202685985199E-9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.60302015969463E-10</v>
+      </c>
+      <c r="F36" s="1">
+        <v>8.5089984231142698E-12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <f>LOG(B36/C36)/LOG(B35/C35)</f>
+        <v>5.2792041020603531</v>
+      </c>
+      <c r="J36" s="1">
+        <f>LOG(C36/D36)/LOG(2)</f>
+        <v>4.8917681897318355</v>
+      </c>
+      <c r="K36" s="1">
+        <f>LOG(D36/E36)/LOG(2)</f>
+        <v>4.5059140890301954</v>
+      </c>
+      <c r="L36" s="1">
+        <f>LOG(E36/F36)/LOG(2)</f>
+        <v>4.2356594336079514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.0676656261578601E-5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.45635883906296E-7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4.6658453459182704E-9</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1.90415033037408E-10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.00399432349302E-11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <f>LOG(B37/C37)/LOG(B35/C35)</f>
+        <v>5.2960234218572477</v>
+      </c>
+      <c r="J37" s="1">
+        <f>LOG(C37/D37)/LOG(2)</f>
+        <v>4.9640835729341539</v>
+      </c>
+      <c r="K37" s="1">
+        <f>LOG(D37/E37)/LOG(2)</f>
+        <v>4.6149192012636178</v>
+      </c>
+      <c r="L37" s="1">
+        <f>LOG(E37/F37)/LOG(2)</f>
+        <v>4.2453243646400596</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2.1363851494202999E-5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.7809675945248101E-7</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8.09095568460738E-9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.6509663150453699E-10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.8631351385503401E-11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1">
+        <f>LOG(B38/C38)/LOG(B35/C35)</f>
+        <v>5.3537115705929885</v>
+      </c>
+      <c r="J38" s="1">
+        <f>LOG(C38/D38)/LOG(2)</f>
+        <v>5.1031330029669109</v>
+      </c>
+      <c r="K38" s="1">
+        <f>LOG(D38/E38)/LOG(2)</f>
+        <v>4.4699598572643993</v>
+      </c>
+      <c r="L38" s="1">
+        <f>LOG(E38/F38)/LOG(2)</f>
+        <v>4.2924741320713302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="C40" s="1">
+        <f>(C36-C30)/C30*100</f>
+        <v>-52.268651581936389</v>
+      </c>
+      <c r="D40" s="1">
+        <f>(D36-D30)/D30*100</f>
+        <v>-48.543303887664656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:D41" si="8">(C37-C31)/C31*100</f>
+        <v>-54.392278469363433</v>
+      </c>
+      <c r="D41" s="1">
         <f t="shared" si="8"/>
-        <v>5.007444255036746</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="8"/>
-        <v>5.003557125691878</v>
-      </c>
-      <c r="M32" s="1">
-        <f t="shared" si="8"/>
-        <v>5.0468770249812334</v>
+        <v>-53.651300936870108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="C42" s="1">
+        <f t="shared" ref="C42:D42" si="9">(C38-C32)/C32*100</f>
+        <v>-56.427864345574307</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="9"/>
+        <v>-59.224089842561433</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Result_Record.xlsx
+++ b/doc/Result_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1EA1F6-A481-49E8-A401-B075A458DF04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8DDD44-0E11-47C4-AB1A-3A72CF148F87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5934" yWindow="828" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5388" yWindow="1110" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5th" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -863,15 +863,15 @@
         <v>5.0019572986932817</v>
       </c>
       <c r="J30" s="1">
-        <f>LOG(C30/D30)/LOG(2)</f>
+        <f t="shared" ref="J30:L32" si="8">LOG(C30/D30)/LOG(2)</f>
         <v>5.0001899251177537</v>
       </c>
       <c r="K30" s="1">
-        <f>LOG(D30/E30)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>4.9968995905353069</v>
       </c>
       <c r="L30" s="1">
-        <f>LOG(E30/F30)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>4.8695819266585314</v>
       </c>
     </row>
@@ -902,15 +902,15 @@
         <v>4.9873252231915997</v>
       </c>
       <c r="J31" s="1">
-        <f>LOG(C31/D31)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>4.9873343202422795</v>
       </c>
       <c r="K31" s="1">
-        <f>LOG(D31/E31)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>4.9966193879584422</v>
       </c>
       <c r="L31" s="1">
-        <f>LOG(E31/F31)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>4.9696532233440047</v>
       </c>
     </row>
@@ -941,15 +941,15 @@
         <v>5.0011284146879769</v>
       </c>
       <c r="J32" s="1">
-        <f>LOG(C32/D32)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>5.007444255036746</v>
       </c>
       <c r="K32" s="1">
-        <f>LOG(D32/E32)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>5.003557125691878</v>
       </c>
       <c r="L32" s="1">
-        <f>LOG(E32/F32)/LOG(2)</f>
+        <f t="shared" si="8"/>
         <v>5.0468770249812334</v>
       </c>
     </row>
@@ -998,38 +998,38 @@
         <v>0</v>
       </c>
       <c r="B36" s="1">
-        <v>7.8192776413125699E-6</v>
+        <v>1.8395354427627502E-5</v>
       </c>
       <c r="C36" s="1">
-        <v>1.08124282793362E-7</v>
+        <v>2.56870580367492E-7</v>
       </c>
       <c r="D36" s="1">
-        <v>3.6421202685985199E-9</v>
+        <v>8.3737348646878393E-9</v>
       </c>
       <c r="E36" s="1">
-        <v>1.60302015969463E-10</v>
+        <v>3.3780185279187398E-10</v>
       </c>
       <c r="F36" s="1">
-        <v>8.5089984231142698E-12</v>
+        <v>1.6922879749891402E-11</v>
       </c>
       <c r="H36" t="s">
         <v>0</v>
       </c>
       <c r="I36" s="1">
         <f>LOG(B36/C36)/LOG(B35/C35)</f>
-        <v>5.2792041020603531</v>
+        <v>5.2671376276601682</v>
       </c>
       <c r="J36" s="1">
-        <f>LOG(C36/D36)/LOG(2)</f>
-        <v>4.8917681897318355</v>
+        <f t="shared" ref="J36:L38" si="9">LOG(C36/D36)/LOG(2)</f>
+        <v>4.9390266170994028</v>
       </c>
       <c r="K36" s="1">
-        <f>LOG(D36/E36)/LOG(2)</f>
-        <v>4.5059140890301954</v>
+        <f t="shared" si="9"/>
+        <v>4.6316220928998861</v>
       </c>
       <c r="L36" s="1">
-        <f>LOG(E36/F36)/LOG(2)</f>
-        <v>4.2356594336079514</v>
+        <f t="shared" si="9"/>
+        <v>4.3191302446592452</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.5">
@@ -1037,38 +1037,38 @@
         <v>1</v>
       </c>
       <c r="B37" s="1">
-        <v>1.0676656261578601E-5</v>
+        <v>2.5193704262042399E-5</v>
       </c>
       <c r="C37" s="1">
-        <v>1.45635883906296E-7</v>
+        <v>3.5031905856389599E-7</v>
       </c>
       <c r="D37" s="1">
-        <v>4.6658453459182704E-9</v>
+        <v>1.1021247949410001E-8</v>
       </c>
       <c r="E37" s="1">
-        <v>1.90415033037408E-10</v>
+        <v>4.15799069480959E-10</v>
       </c>
       <c r="F37" s="1">
-        <v>1.00399432349302E-11</v>
+        <v>1.9973668885401899E-11</v>
       </c>
       <c r="H37" t="s">
         <v>1</v>
       </c>
       <c r="I37" s="1">
         <f>LOG(B37/C37)/LOG(B35/C35)</f>
-        <v>5.2960234218572477</v>
+        <v>5.2723464865262626</v>
       </c>
       <c r="J37" s="1">
-        <f>LOG(C37/D37)/LOG(2)</f>
-        <v>4.9640835729341539</v>
+        <f t="shared" si="9"/>
+        <v>4.9903099814581466</v>
       </c>
       <c r="K37" s="1">
-        <f>LOG(D37/E37)/LOG(2)</f>
-        <v>4.6149192012636178</v>
+        <f t="shared" si="9"/>
+        <v>4.7282572514757026</v>
       </c>
       <c r="L37" s="1">
-        <f>LOG(E37/F37)/LOG(2)</f>
-        <v>4.2453243646400596</v>
+        <f t="shared" si="9"/>
+        <v>4.3797152643184774</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.5">
@@ -1076,68 +1076,92 @@
         <v>2</v>
       </c>
       <c r="B38" s="1">
-        <v>2.1363851494202999E-5</v>
+        <v>5.0693607093681598E-5</v>
       </c>
       <c r="C38" s="1">
-        <v>2.7809675945248101E-7</v>
+        <v>6.8596550589829802E-7</v>
       </c>
       <c r="D38" s="1">
-        <v>8.09095568460738E-9</v>
+        <v>2.0066117301397298E-8</v>
       </c>
       <c r="E38" s="1">
-        <v>3.6509663150453699E-10</v>
+        <v>7.9475384956152402E-10</v>
       </c>
       <c r="F38" s="1">
-        <v>1.8631351385503401E-11</v>
+        <v>3.8887872635649197E-11</v>
       </c>
       <c r="H38" t="s">
         <v>2</v>
       </c>
       <c r="I38" s="1">
         <f>LOG(B38/C38)/LOG(B35/C35)</f>
-        <v>5.3537115705929885</v>
+        <v>5.3059161679329048</v>
       </c>
       <c r="J38" s="1">
-        <f>LOG(C38/D38)/LOG(2)</f>
-        <v>5.1031330029669109</v>
+        <f t="shared" si="9"/>
+        <v>5.0953026374519013</v>
       </c>
       <c r="K38" s="1">
-        <f>LOG(D38/E38)/LOG(2)</f>
-        <v>4.4699598572643993</v>
+        <f t="shared" si="9"/>
+        <v>4.6581095794414935</v>
       </c>
       <c r="L38" s="1">
-        <f>LOG(E38/F38)/LOG(2)</f>
-        <v>4.2924741320713302</v>
+        <f t="shared" si="9"/>
+        <v>4.3531158800948919</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C40" s="1">
         <f>(C36-C30)/C30*100</f>
-        <v>-52.268651581936389</v>
+        <v>13.395241597141839</v>
       </c>
       <c r="D40" s="1">
         <f>(D36-D30)/D30*100</f>
-        <v>-48.543303887664656</v>
+        <v>18.306013662561782</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" ref="E40:F40" si="10">(E36-E30)/E30*100</f>
+        <v>52.39345121565502</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="10"/>
+        <v>123.18693697921772</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C41" s="1">
-        <f t="shared" ref="C41:D41" si="8">(C37-C31)/C31*100</f>
-        <v>-54.392278469363433</v>
+        <f t="shared" ref="C41:D41" si="11">(C37-C31)/C31*100</f>
+        <v>9.7068499967831006</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="8"/>
-        <v>-53.651300936870108</v>
+        <f t="shared" si="11"/>
+        <v>9.4808050065809972</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" ref="E41:F41" si="12">(E37-E31)/E31*100</f>
+        <v>31.863025131697718</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="12"/>
+        <v>98.477854252074394</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C42" s="1">
-        <f t="shared" ref="C42:D42" si="9">(C38-C32)/C32*100</f>
-        <v>-56.427864345574307</v>
+        <f t="shared" ref="C42:D42" si="13">(C38-C32)/C32*100</f>
+        <v>7.4769160780695092</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="9"/>
-        <v>-59.224089842561433</v>
+        <f t="shared" si="13"/>
+        <v>1.127014926927562</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" ref="E42:F42" si="14">(E38-E32)/E32*100</f>
+        <v>28.486429660885054</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="14"/>
+        <v>107.82614203259995</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Result_Record.xlsx
+++ b/doc/Result_Record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8DDD44-0E11-47C4-AB1A-3A72CF148F87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5597AA8B-53DE-4B8B-8766-917DDB03831A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5388" yWindow="1110" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12636" yWindow="1218" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5th" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
   <si>
     <t>L1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1162,6 +1162,145 @@
       <c r="F42" s="1">
         <f t="shared" si="14"/>
         <v>107.82614203259995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>4.5</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0.5</v>
+      </c>
+      <c r="F45">
+        <v>0.25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0.5</v>
+      </c>
+      <c r="L45">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.8451163937782E-5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2.4984511971875003E-7</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="H46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <f>LOG(B46/C46)/LOG(B45/C45)</f>
+        <v>5.305069958862032</v>
+      </c>
+      <c r="J46" s="1" t="e">
+        <f t="shared" ref="J46:J48" si="15">LOG(C46/D46)/LOG(2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="1" t="e">
+        <f t="shared" ref="K46:K48" si="16">LOG(D46/E46)/LOG(2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" s="1" t="e">
+        <f t="shared" ref="L46:L48" si="17">LOG(E46/F46)/LOG(2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.53303185808823E-5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3.4876270679195201E-7</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="H47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <f>LOG(B47/C47)/LOG(B45/C45)</f>
+        <v>5.2845059497350251</v>
+      </c>
+      <c r="J47" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L47" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5.0949643402108897E-5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6.8693521085838898E-7</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="H48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1">
+        <f>LOG(B48/C48)/LOG(B45/C45)</f>
+        <v>5.3103867300756633</v>
+      </c>
+      <c r="J48" s="1" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K48" s="1" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L48" s="1" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Result_Record.xlsx
+++ b/doc/Result_Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Models\FVM\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5597AA8B-53DE-4B8B-8766-917DDB03831A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3024BC66-F5EC-4A3B-AED6-3BB0885748E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12636" yWindow="1218" windowWidth="16650" windowHeight="10206" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5th" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
   <si>
     <t>L1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,7 +64,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WENO</t>
+    <t>WENO_2pts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WENO_3pts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,14 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:C48"/>
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
+    <col min="1" max="1" width="10.1484375" customWidth="1"/>
     <col min="2" max="2" width="9.84765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="9.84765625" bestFit="1" customWidth="1"/>
@@ -692,7 +697,7 @@
         <v>-0.41858005509210544</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -709,7 +714,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -723,7 +728,7 @@
         <v>2.90312201992803E-9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -737,7 +742,7 @@
         <v>3.6769991844076998E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -751,7 +756,7 @@
         <v>1.41552499787276E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -768,7 +773,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -779,7 +784,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -790,7 +795,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -801,7 +806,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -820,23 +825,26 @@
       <c r="F29">
         <v>0.25</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29">
+        <v>0.125</v>
+      </c>
+      <c r="I29" t="s">
         <v>6</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>0.5</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -855,27 +863,27 @@
       <c r="F30" s="1">
         <v>7.5823791387339097E-12</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>0</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <f>LOG(B30/C30)/LOG(B29/C29)</f>
         <v>5.0019572986932817</v>
       </c>
-      <c r="J30" s="1">
-        <f t="shared" ref="J30:L32" si="8">LOG(C30/D30)/LOG(2)</f>
+      <c r="K30" s="1">
+        <f>LOG(C30/D30)/LOG(2)</f>
         <v>5.0001899251177537</v>
       </c>
-      <c r="K30" s="1">
-        <f t="shared" si="8"/>
+      <c r="L30" s="1">
+        <f>LOG(D30/E30)/LOG(2)</f>
         <v>4.9968995905353069</v>
       </c>
-      <c r="L30" s="1">
-        <f t="shared" si="8"/>
+      <c r="M30" s="1">
+        <f>LOG(E30/F30)/LOG(2)</f>
         <v>4.8695819266585314</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -894,27 +902,27 @@
       <c r="F31" s="1">
         <v>1.0063424436277199E-11</v>
       </c>
-      <c r="H31" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
         <f>LOG(B31/C31)/LOG(B29/C29)</f>
         <v>4.9873252231915997</v>
       </c>
-      <c r="J31" s="1">
-        <f t="shared" si="8"/>
+      <c r="K31" s="1">
+        <f>LOG(C31/D31)/LOG(2)</f>
         <v>4.9873343202422795</v>
       </c>
-      <c r="K31" s="1">
-        <f t="shared" si="8"/>
+      <c r="L31" s="1">
+        <f>LOG(D31/E31)/LOG(2)</f>
         <v>4.9966193879584422</v>
       </c>
-      <c r="L31" s="1">
-        <f t="shared" si="8"/>
+      <c r="M31" s="1">
+        <f>LOG(E31/F31)/LOG(2)</f>
         <v>4.9696532233440047</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -933,34 +941,29 @@
       <c r="F32" s="1">
         <v>1.8711732920273901E-11</v>
       </c>
-      <c r="H32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
         <f>LOG(B32/C32)/LOG(B29/C29)</f>
         <v>5.0011284146879769</v>
       </c>
-      <c r="J32" s="1">
-        <f t="shared" si="8"/>
+      <c r="K32" s="1">
+        <f>LOG(C32/D32)/LOG(2)</f>
         <v>5.007444255036746</v>
       </c>
-      <c r="K32" s="1">
-        <f t="shared" si="8"/>
+      <c r="L32" s="1">
+        <f>LOG(D32/E32)/LOG(2)</f>
         <v>5.003557125691878</v>
       </c>
-      <c r="L32" s="1">
-        <f t="shared" si="8"/>
+      <c r="M32" s="1">
+        <f>LOG(E32/F32)/LOG(2)</f>
         <v>5.0468770249812334</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A34" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A35" t="s">
-        <v>8</v>
       </c>
       <c r="B35">
         <v>4.5</v>
@@ -977,23 +980,26 @@
       <c r="F35">
         <v>0.25</v>
       </c>
-      <c r="H35" t="s">
+      <c r="G35">
+        <v>0.125</v>
+      </c>
+      <c r="I35" t="s">
         <v>6</v>
       </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
         <v>0.5</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1012,27 +1018,27 @@
       <c r="F36" s="1">
         <v>1.6922879749891402E-11</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <f>LOG(B36/C36)/LOG(B35/C35)</f>
         <v>5.2671376276601682</v>
       </c>
-      <c r="J36" s="1">
-        <f t="shared" ref="J36:L38" si="9">LOG(C36/D36)/LOG(2)</f>
+      <c r="K36" s="1">
+        <f>LOG(C36/D36)/LOG(2)</f>
         <v>4.9390266170994028</v>
       </c>
-      <c r="K36" s="1">
-        <f t="shared" si="9"/>
+      <c r="L36" s="1">
+        <f>LOG(D36/E36)/LOG(2)</f>
         <v>4.6316220928998861</v>
       </c>
-      <c r="L36" s="1">
-        <f t="shared" si="9"/>
+      <c r="M36" s="1">
+        <f>LOG(E36/F36)/LOG(2)</f>
         <v>4.3191302446592452</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1051,27 +1057,27 @@
       <c r="F37" s="1">
         <v>1.9973668885401899E-11</v>
       </c>
-      <c r="H37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1">
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
         <f>LOG(B37/C37)/LOG(B35/C35)</f>
         <v>5.2723464865262626</v>
       </c>
-      <c r="J37" s="1">
-        <f t="shared" si="9"/>
+      <c r="K37" s="1">
+        <f>LOG(C37/D37)/LOG(2)</f>
         <v>4.9903099814581466</v>
       </c>
-      <c r="K37" s="1">
-        <f t="shared" si="9"/>
+      <c r="L37" s="1">
+        <f>LOG(D37/E37)/LOG(2)</f>
         <v>4.7282572514757026</v>
       </c>
-      <c r="L37" s="1">
-        <f t="shared" si="9"/>
+      <c r="M37" s="1">
+        <f>LOG(E37/F37)/LOG(2)</f>
         <v>4.3797152643184774</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1090,27 +1096,27 @@
       <c r="F38" s="1">
         <v>3.8887872635649197E-11</v>
       </c>
-      <c r="H38" t="s">
-        <v>2</v>
-      </c>
-      <c r="I38" s="1">
+      <c r="I38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
         <f>LOG(B38/C38)/LOG(B35/C35)</f>
         <v>5.3059161679329048</v>
       </c>
-      <c r="J38" s="1">
-        <f t="shared" si="9"/>
+      <c r="K38" s="1">
+        <f>LOG(C38/D38)/LOG(2)</f>
         <v>5.0953026374519013</v>
       </c>
-      <c r="K38" s="1">
-        <f t="shared" si="9"/>
+      <c r="L38" s="1">
+        <f>LOG(D38/E38)/LOG(2)</f>
         <v>4.6581095794414935</v>
       </c>
-      <c r="L38" s="1">
-        <f t="shared" si="9"/>
+      <c r="M38" s="1">
+        <f>LOG(E38/F38)/LOG(2)</f>
         <v>4.3531158800948919</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
       <c r="C40" s="1">
         <f>(C36-C30)/C30*100</f>
         <v>13.395241597141839</v>
@@ -1120,58 +1126,53 @@
         <v>18.306013662561782</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" ref="E40:F40" si="10">(E36-E30)/E30*100</f>
+        <f t="shared" ref="E40:F40" si="8">(E36-E30)/E30*100</f>
         <v>52.39345121565502</v>
       </c>
       <c r="F40" s="1">
+        <f t="shared" si="8"/>
+        <v>123.18693697921772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:D41" si="9">(C37-C31)/C31*100</f>
+        <v>9.7068499967831006</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="9"/>
+        <v>9.4808050065809972</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" ref="E41:F41" si="10">(E37-E31)/E31*100</f>
+        <v>31.863025131697718</v>
+      </c>
+      <c r="F41" s="1">
         <f t="shared" si="10"/>
-        <v>123.18693697921772</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C41" s="1">
-        <f t="shared" ref="C41:D41" si="11">(C37-C31)/C31*100</f>
-        <v>9.7068499967831006</v>
-      </c>
-      <c r="D41" s="1">
+        <v>98.477854252074394</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="C42" s="1">
+        <f t="shared" ref="C42:D42" si="11">(C38-C32)/C32*100</f>
+        <v>7.4769160780695092</v>
+      </c>
+      <c r="D42" s="1">
         <f t="shared" si="11"/>
-        <v>9.4808050065809972</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" ref="E41:F41" si="12">(E37-E31)/E31*100</f>
-        <v>31.863025131697718</v>
-      </c>
-      <c r="F41" s="1">
+        <v>1.127014926927562</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" ref="E42:F42" si="12">(E38-E32)/E32*100</f>
+        <v>28.486429660885054</v>
+      </c>
+      <c r="F42" s="1">
         <f t="shared" si="12"/>
-        <v>98.477854252074394</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="C42" s="1">
-        <f t="shared" ref="C42:D42" si="13">(C38-C32)/C32*100</f>
-        <v>7.4769160780695092</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="13"/>
-        <v>1.127014926927562</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" ref="E42:F42" si="14">(E38-E32)/E32*100</f>
-        <v>28.486429660885054</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="14"/>
         <v>107.82614203259995</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>4.5</v>
@@ -1188,120 +1189,219 @@
       <c r="F45">
         <v>0.25</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45">
+        <v>0.125</v>
+      </c>
+      <c r="I45" t="s">
         <v>6</v>
       </c>
-      <c r="I45">
-        <v>2</v>
-      </c>
       <c r="J45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
         <v>0.5</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="1">
-        <v>1.8451163937782E-5</v>
+        <v>1.2322184565774601E-3</v>
       </c>
       <c r="C46" s="1">
-        <v>2.4984511971875003E-7</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="H46" t="s">
+        <v>2.2668174563872901E-7</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7.0792586025599501E-9</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2.2153925210637801E-10</v>
+      </c>
+      <c r="F46" s="1">
+        <v>6.9295273826759897E-12</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2.4010553939751E-12</v>
+      </c>
+      <c r="I46" t="s">
         <v>0</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <f>LOG(B46/C46)/LOG(B45/C45)</f>
-        <v>5.305069958862032</v>
-      </c>
-      <c r="J46" s="1" t="e">
-        <f t="shared" ref="J46:J48" si="15">LOG(C46/D46)/LOG(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K46" s="1" t="e">
-        <f t="shared" ref="K46:K48" si="16">LOG(D46/E46)/LOG(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L46" s="1" t="e">
-        <f t="shared" ref="L46:L48" si="17">LOG(E46/F46)/LOG(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
+        <v>10.606066369028404</v>
+      </c>
+      <c r="K46" s="1">
+        <f>LOG(C46/D46)/LOG(2)</f>
+        <v>5.0009261298531236</v>
+      </c>
+      <c r="L46" s="1">
+        <f>LOG(D46/E46)/LOG(2)</f>
+        <v>4.9979640356548574</v>
+      </c>
+      <c r="M46" s="1">
+        <f>LOG(E46/F46)/LOG(2)</f>
+        <v>4.9986615674765149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>1</v>
       </c>
       <c r="B47" s="1">
-        <v>2.53303185808823E-5</v>
+        <v>1.6252563740655E-3</v>
       </c>
       <c r="C47" s="1">
-        <v>3.4876270679195201E-7</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="H47" t="s">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1">
+        <v>3.1936128738466999E-7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.00671652278376E-8</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3.15275817179607E-10</v>
+      </c>
+      <c r="F47" s="1">
+        <v>9.8564350322772102E-12</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2.4158227291464602E-12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
         <f>LOG(B47/C47)/LOG(B45/C45)</f>
-        <v>5.2845059497350251</v>
-      </c>
-      <c r="J47" s="1" t="e">
+        <v>10.524768882734966</v>
+      </c>
+      <c r="K47" s="1">
+        <f>LOG(C47/D47)/LOG(2)</f>
+        <v>4.9874600384743166</v>
+      </c>
+      <c r="L47" s="1">
+        <f>LOG(D47/E47)/LOG(2)</f>
+        <v>4.9968991734452297</v>
+      </c>
+      <c r="M47" s="1">
+        <f>LOG(E47/F47)/LOG(2)</f>
+        <v>4.9994047705040616</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3.4230317853628902E-3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6.38545034370937E-7</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.98464827448489E-8</v>
+      </c>
+      <c r="E48" s="1">
+        <v>6.18770409358344E-10</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1.9326948874098199E-11</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2.1808071260788598E-12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="1">
+        <f>LOG(B48/C48)/LOG(B45/C45)</f>
+        <v>10.588882775704395</v>
+      </c>
+      <c r="K48" s="1">
+        <f>LOG(C48/D48)/LOG(2)</f>
+        <v>5.0078331155533906</v>
+      </c>
+      <c r="L48" s="1">
+        <f>LOG(D48/E48)/LOG(2)</f>
+        <v>5.003335334578856</v>
+      </c>
+      <c r="M48" s="1">
+        <f>LOG(E48/F48)/LOG(2)</f>
+        <v>5.0007184025047637</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B50" s="1">
+        <f>(B46-B30)/B30</f>
+        <v>93.181641660016211</v>
+      </c>
+      <c r="C50" s="1">
+        <f>(C46-C30)/C30</f>
+        <v>6.8412955626088209E-4</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" ref="D50:G50" si="13">(D46-D30)/D30</f>
+        <v>1.7361247857824555E-4</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="13"/>
+        <v>-5.6406058178499596E-4</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="13"/>
+        <v>-8.6101175384766096E-2</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B51" s="1">
+        <f t="shared" ref="B51:B52" si="14">(B47-B31)/B31</f>
+        <v>88.174996820041557</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" ref="C51:G52" si="15">(C47-C31)/C31</f>
+        <v>1.2031870367571668E-4</v>
+      </c>
+      <c r="D51" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K47" s="1" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="1" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="1">
-        <v>5.0949643402108897E-5</v>
-      </c>
-      <c r="C48" s="1">
-        <v>6.8693521085838898E-7</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="H48" t="s">
-        <v>2</v>
-      </c>
-      <c r="I48" s="1">
-        <f>LOG(B48/C48)/LOG(B45/C45)</f>
-        <v>5.3103867300756633</v>
-      </c>
-      <c r="J48" s="1" t="e">
+        <v>3.317077801773581E-5</v>
+      </c>
+      <c r="E51" s="1">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K48" s="1" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L48" s="1" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>-1.6074937188267365E-4</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="15"/>
+        <v>-2.0568485937433195E-2</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.5">
+      <c r="B52" s="1">
+        <f t="shared" si="14"/>
+        <v>91.920995140212284</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="15"/>
+        <v>4.7087617446749385E-4</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="15"/>
+        <v>2.0124802399468505E-4</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="15"/>
+        <v>3.5502466733669259E-4</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="15"/>
+        <v>3.2878619871584421E-2</v>
+      </c>
+      <c r="G52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
